--- a/Location Details/Winthrop Ave, Indianapolis, IN 46220_sport.xlsx
+++ b/Location Details/Winthrop Ave, Indianapolis, IN 46220_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -515,22 +515,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Champs Sports</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+          <t>Cabela's</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -539,20 +537,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D&amp;D Sport Center</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Champs Sports</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -561,20 +561,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DICK'S Sporting Goods</t>
+          <t>D&amp;D Sport Center</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -583,20 +583,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dick's Sporting Goods Distribution Center</t>
+          <t>DICK'S Sporting Goods</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>189</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -605,20 +605,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dugan's Sports Performance</t>
+          <t>Dick's Sporting Goods Distribution Center</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -627,22 +627,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Finish Line</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
+          <t>Dugan's Sports Performance</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -651,20 +649,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Genesis Sports Performance</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Finish Line</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
       <c r="E10" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -673,20 +673,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hibbett Sports</t>
+          <t>Genesis Sports Performance</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="F11" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -695,20 +695,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IRC Team Sports</t>
+          <t>Hibbett Sports</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -717,20 +717,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Indy Card Exchange</t>
+          <t>Indianapolis Sports Park Inc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="F13" t="n">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -906,29 +906,29 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLOSED_TEMPORARILY</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Oakley Store</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -937,20 +937,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oakley Store</t>
+          <t>Origyn Sport</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -959,20 +959,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Origyn Sport</t>
+          <t>Performance Sports</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -981,20 +981,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Performance Sports</t>
+          <t>Play It Again Sports</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1003,20 +1003,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Play It Again Sports</t>
+          <t>Ruben Sports</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ruben Sports</t>
+          <t>Sport Clips Haircuts of Avon</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1047,20 +1047,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Avon</t>
+          <t>Sport Clips Haircuts of Carmel - 146th Street</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F28" t="n">
-        <v>128</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1069,20 +1069,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Carmel - 146th Street</t>
+          <t>Sport Clips Haircuts of Castleton Crossing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="F29" t="n">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1091,20 +1091,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Castleton Crossing</t>
+          <t>Sport Clips Haircuts of Fishers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1113,20 +1113,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Fishers</t>
+          <t>Sport Clips Haircuts of Fishers @ Olio</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F31" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1135,20 +1135,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Fishers @ Olio</t>
+          <t>Sport Clips Haircuts of Geist Oaklandon</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="F32" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1157,20 +1157,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Geist Oaklandon</t>
+          <t>Sport Clips Haircuts of Indianapolis - 96th Street</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="F33" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1179,20 +1179,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of German Church Shops</t>
+          <t>Sport Clips Haircuts of Noblesville at Stoney Creek Commons</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="F34" t="n">
-        <v>129</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1201,20 +1201,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Indianapolis - 96th Street</t>
+          <t>Sport Clips Haircuts of North Keystone</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="F35" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1223,15 +1223,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Medford Place</t>
+          <t>Sport Clips Haircuts of Plainfield</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F36" t="n">
-        <v>101</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -1245,20 +1245,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Noblesville at Stoney Creek Commons</t>
+          <t>Sport Clips Haircuts of Saxony</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="F37" t="n">
-        <v>261</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1267,20 +1267,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of North Keystone</t>
+          <t>Sport Clips Haircuts of Shadeland Place</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Plainfield</t>
+          <t>Sport Clips Haircuts of South Bluff Crossing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F39" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1311,20 +1311,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Shadeland Place</t>
+          <t>Sport Clips Haircuts of Westfield</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="F40" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of South Bluff Crossing</t>
+          <t>Sport Graphics Inc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1341,12 +1341,12 @@
         <v>4.3</v>
       </c>
       <c r="F41" t="n">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1355,20 +1355,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Westfield</t>
+          <t>Sport Passes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1377,20 +1377,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sport Graphics Inc</t>
+          <t>Sport Vision</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1399,20 +1399,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sport Passes</t>
+          <t>Sport'n Image</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sport Vision</t>
+          <t>Sports Corporation Inc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1443,20 +1443,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sports Corporation Inc</t>
+          <t>Sports Spot</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1465,20 +1465,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sports Spot</t>
+          <t>Sports Travel &amp; Tickets</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1487,20 +1487,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sports Travel &amp; Tickets</t>
+          <t>Sun Valley Sports</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1509,20 +1509,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sun Valley Sports</t>
+          <t>Team Sports</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>112</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1531,20 +1531,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Team Sports</t>
+          <t>The North Face The Fashion Mall at Keystone</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1553,20 +1553,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The North Face The Fashion Mall at Keystone</t>
+          <t>The SportZone</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>124</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1575,36 +1575,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The SportZone</t>
+          <t>Webster's Sporting Goods</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F52" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Webster's Sporting Goods</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F53" t="n">
         <v>28</v>
       </c>
     </row>
